--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_016.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_016.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295031EK2.09) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
+  </si>
+  <si>
+    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
+  </si>
+  <si>
+    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK2.02) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
+  </si>
+  <si>
+    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295006AA1.05) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Neutron monitoring system</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295001AK2.09) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295010AA1.01) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Primary containment and auxiliaries </t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(500000EK2.04) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell recirculating fan</t>
+  </si>
+  <si>
+    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(211000K4.12) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SLCS pump trips</t>
+  </si>
+  <si>
+    <t>(259002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater flow input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217000A4.12) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
+  </si>
+  <si>
+    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
+  </si>
+  <si>
+    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(209002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(223002K4.08) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual defeating of selected isolations during specified emergency conditions</t>
+  </si>
+  <si>
+    <t>(209001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ECCS room cooler(s)</t>
+  </si>
+  <si>
+    <t>(261000A4.03) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fan</t>
+  </si>
+  <si>
+    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215005K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Core flow effects on APRM trip setpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(264000A3.01) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Starting/loading </t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291001K1.09) VALVES (CFR: 41.3) The stroke test for a valve, including the use of a stopwatch</t>
+  </si>
+  <si>
+    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
+  </si>
+  <si>
+    <t>(510000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(211000K4.01) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Zero leakage to the reactor (squib valves)</t>
+  </si>
+  <si>
+    <t>(259002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor water level input</t>
+  </si>
+  <si>
+    <t>(217000A4.13) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation</t>
+  </si>
+  <si>
+    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(204000A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of room coolers </t>
+  </si>
+  <si>
+    <t>(259001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) Feedwater flow/pressure</t>
+  </si>
+  <si>
+    <t>(201001K4.11) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Protection against filling the SDV during non-SCRAM conditions</t>
+  </si>
+  <si>
+    <t>(233000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.7 / 45.7) NSSSS/PCIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
+  </si>
+  <si>
+    <t>(271000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(216000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Vessel differential pressure measurement</t>
+  </si>
+  <si>
+    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
+  </si>
+  <si>
+    <t>(241000K2.01) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(230000K3.06) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292008K1.20) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of an increase in core flow on reactor power and void fraction</t>
+  </si>
+  <si>
+    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(293008K1.04) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Describe means by which boiling improves convection heat transfer</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
-    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295037EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Initiation of ATWS circuitry</t>
-  </si>
-  <si>
-    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295009AA1.06) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) CRD system</t>
-  </si>
-  <si>
-    <t>(295014AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Control rod blocks</t>
-  </si>
-  <si>
-    <t>(295033EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295013AK2.03) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) RCIC/HPCI operation</t>
-  </si>
-  <si>
-    <t>(261000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(239002K4.08) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Opening of the SRV from either an electrical or mechanical signal</t>
-  </si>
-  <si>
-    <t>(203000K2.02) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(262001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Load currents</t>
-  </si>
-  <si>
-    <t>(259002K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Loss of differential pressure across startup level control bypass valve</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(215005A4.04) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) LPRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(400000A2.13) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(510000K4.02) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic valve alignments</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(205000A3.02) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Pump operation</t>
-  </si>
-  <si>
-    <t>(264000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Operating voltages, currents, and temperatures</t>
-  </si>
-  <si>
-    <t>(300000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (291005K1.05) MOTORS AND GENERATORS (CFR: 41.7) Explain the difference between starting current and operating (running) current in a motor</t>
-  </si>
-  <si>
-    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
-  </si>
-  <si>
-    <t>(209002A4.05) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
-  </si>
-  <si>
-    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
-  </si>
-  <si>
-    <t>(261000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(212000A2.10) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system low hydraulic pressure</t>
-  </si>
-  <si>
-    <t>(239002K4.07) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Minimum steam pressure required to keep SRV open or to open SRV</t>
-  </si>
-  <si>
-    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(290001A4.12) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) Surveillance testing</t>
-  </si>
-  <si>
-    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
-  </si>
-  <si>
-    <t>(215001K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(201005K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Changes in reactor power</t>
-  </si>
-  <si>
-    <t>(230000K4.08) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(245000A3.10) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Voltage regulator</t>
-  </si>
-  <si>
-    <t>(234000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.5 / 45.5) Core reactivity level</t>
-  </si>
-  <si>
-    <t>(271000K6.16) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Hydrogen water chemistry system</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(272000K3.05) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Offgas system</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(212000A2.20) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Full RPS actuation </t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002A2.05) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Scoop tube lockup (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(293008K1.32) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe core bypass flow</t>
-  </si>
-  <si>
-    <t>(293007K1.13) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Calculate core thermal power using a simplified heat</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(202002A2.03) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical power</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201003A2.03) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Drifting rod</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295031</t>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
   </si>
   <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
+    <t>295037</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>295035</t>
   </si>
   <si>
     <t>272000</t>
   </si>
   <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
     <t>202002</t>
   </si>
   <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1463,7 +1463,7 @@
         <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
         <v>107</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D35" t="s">
         <v>108</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>107</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
         <v>107</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
         <v>109</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
         <v>107</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1990,7 +1990,7 @@
         <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
         <v>108</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
